--- a/KorrelationExt.xlsx
+++ b/KorrelationExt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Desktop/OpenData-HSV-Study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxbl\OneDrive\Desktop\OpenData-HSV-Study\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9826507D-20BA-7F4B-A184-60C574F6C8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8AFCC6-0B20-4A59-B1CF-B70DBA9EF784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14740" yWindow="0" windowWidth="14060" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15195" yWindow="195" windowWidth="15150" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -527,35 +527,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K5" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1:L1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -608,7 +608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -661,7 +661,7 @@
         <v>6.6976216782111504E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -714,7 +714,7 @@
         <v>-0.22407557102597381</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -767,7 +767,7 @@
         <v>-9.6957233112744089E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -820,7 +820,7 @@
         <v>-6.8595245588567708E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -873,7 +873,7 @@
         <v>0.30291217301643691</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,7 +926,7 @@
         <v>-0.37581063709469881</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -979,7 +979,7 @@
         <v>0.1018238477428189</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>-0.22542698007879161</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>0.21676479945520011</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>0.15100373377497481</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>-4.1325775310724948E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>-3.9346719031837347E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>12</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>0.37228021366725172</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>0.15645759631097739</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>14</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>9.1891891891891841E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
@@ -1525,7 +1525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>20</v>
       </c>
@@ -1594,10 +1594,10 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>19</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>20</v>
       </c>
@@ -1615,7 +1615,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>21</v>
       </c>
@@ -1624,24 +1624,24 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>0.1</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>0.3</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35">
         <v>0.5</v>
       </c>
